--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38261F33-1C2D-4F13-BE9B-68215131A804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A60232-8A7C-4FBC-A29C-99AB6C2A73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,22 @@
   </si>
   <si>
     <t>Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獨立項</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色區塊結束後是紅區塊，紅區塊結束後是藍區塊，藍區塊選一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅區塊通常是舞會摸魚輪流輪，結束後下周換藍區塊，憶戰時間到會同時和舞會或摸魚同時出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周都至少會在綠色中選一個或更多</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,13 +156,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
@@ -170,6 +179,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -186,12 +203,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -204,12 +215,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -226,8 +231,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -235,40 +252,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -549,239 +583,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.09765625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="12.69921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="13.296875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="15" style="6" customWidth="1"/>
-    <col min="11" max="11" width="10.8984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="12" customWidth="1"/>
-    <col min="14" max="14" width="13.19921875" style="14" customWidth="1"/>
-    <col min="15" max="15" width="17.796875" style="14" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" style="17" customWidth="1"/>
-    <col min="17" max="17" width="10.8984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12.69921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="34.19921875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="36.19921875" style="33" customWidth="1"/>
+    <col min="12" max="12" width="10.8984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" style="5" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.796875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.3984375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="24"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="26"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="I2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q2" s="11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>45685</v>
-      </c>
-      <c r="B2" s="7">
-        <v>45707</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45580</v>
-      </c>
-      <c r="D2" s="7">
-        <v>45791</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="8">
-        <v>45672</v>
-      </c>
-      <c r="G2" s="8">
-        <v>45684</v>
-      </c>
-      <c r="H2" s="8">
-        <v>45658</v>
-      </c>
-      <c r="I2" s="9">
-        <v>45651</v>
-      </c>
-      <c r="J2" s="5">
-        <v>45700</v>
-      </c>
-      <c r="K2" s="5">
-        <v>45714</v>
-      </c>
-      <c r="L2" s="13">
-        <v>45700</v>
-      </c>
-      <c r="M2" s="12">
-        <v>45672</v>
-      </c>
-      <c r="N2" s="12">
-        <v>45721</v>
-      </c>
-      <c r="O2" s="12">
-        <v>45684</v>
-      </c>
-      <c r="P2" s="16">
-        <v>45728</v>
-      </c>
-      <c r="Q2" s="19">
-        <v>45677</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>45734</v>
-      </c>
-      <c r="C3" s="7">
-        <v>45756</v>
-      </c>
-      <c r="F3" s="23">
-        <v>45805</v>
-      </c>
-      <c r="H3" s="8">
+        <v>45685</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45707</v>
+      </c>
+      <c r="C3" s="3">
+        <v>45580</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45791</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45672</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45658</v>
+      </c>
+      <c r="H3" s="4">
+        <v>45684</v>
+      </c>
+      <c r="I3" s="35">
+        <v>45651</v>
+      </c>
+      <c r="J3" s="31">
+        <v>45700</v>
+      </c>
+      <c r="K3" s="31">
+        <v>45714</v>
+      </c>
+      <c r="L3" s="7">
+        <v>45700</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45672</v>
+      </c>
+      <c r="N3" s="5">
         <v>45721</v>
       </c>
-      <c r="I3" s="9">
-        <v>45714</v>
-      </c>
-      <c r="J3" s="5">
-        <v>45749</v>
-      </c>
-      <c r="K3" s="5">
-        <v>45763</v>
-      </c>
-      <c r="L3" s="12">
+      <c r="O3" s="5">
+        <v>45684</v>
+      </c>
+      <c r="P3" s="9">
         <v>45728</v>
       </c>
-      <c r="M3" s="12">
-        <v>45707</v>
-      </c>
-      <c r="N3" s="24">
-        <v>45805</v>
-      </c>
-      <c r="O3" s="12">
-        <v>45735</v>
-      </c>
-      <c r="P3" s="16">
-        <v>45777</v>
-      </c>
-      <c r="Q3" s="19"/>
+      <c r="Q3" s="11">
+        <v>45677</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45783</v>
-      </c>
-      <c r="I4" s="9">
+        <v>45734</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45756</v>
+      </c>
+      <c r="F4" s="15">
+        <v>45805</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45721</v>
+      </c>
+      <c r="I4" s="35">
+        <v>45714</v>
+      </c>
+      <c r="J4" s="31">
         <v>45749</v>
       </c>
-      <c r="J4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="5">
-        <v>45798</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="K4" s="31">
+        <v>45763</v>
+      </c>
+      <c r="L4" s="5">
+        <v>45728</v>
+      </c>
+      <c r="M4" s="5">
+        <v>45707</v>
+      </c>
+      <c r="N4" s="16">
+        <v>45805</v>
+      </c>
+      <c r="O4" s="5">
         <v>45735</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12">
+      <c r="P4" s="9">
         <v>45777</v>
       </c>
-      <c r="P4" s="27">
-        <v>45826</v>
-      </c>
-      <c r="Q4" s="19"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="21">
-        <v>45832</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="A5" s="2">
+        <v>45783</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="35">
+        <v>45749</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="31">
         <v>45798</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12">
-        <v>45763</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="25" t="s">
+      <c r="L5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="19"/>
+      <c r="M5" s="5">
+        <v>45735</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
+        <v>45777</v>
+      </c>
+      <c r="P5" s="18">
+        <v>45826</v>
+      </c>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I6" s="28">
+      <c r="A6" s="13">
+        <v>45833</v>
+      </c>
+      <c r="I6" s="35">
+        <v>45798</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
+        <v>45763</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I7" s="36">
         <v>45847</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12">
-        <v>45792</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="19"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
+        <v>45791</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A60232-8A7C-4FBC-A29C-99AB6C2A73AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB66399E-34C1-458A-AF1C-474A52E6A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>每周都至少會在綠色中選一個或更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾光奇旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>釣魚王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使徒來襲(EVA)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +198,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="10">
@@ -265,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -279,10 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -300,9 +316,19 @@
     <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -583,60 +609,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.3984375" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.09765625" style="3" customWidth="1"/>
     <col min="3" max="4" width="12.69921875" style="3" customWidth="1"/>
     <col min="5" max="5" width="10.59765625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.19921875" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.796875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="34.19921875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="36.19921875" style="33" customWidth="1"/>
-    <col min="12" max="12" width="10.8984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" style="32" customWidth="1"/>
+    <col min="10" max="10" width="34.19921875" style="30" customWidth="1"/>
+    <col min="11" max="11" width="36.19921875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="5" customWidth="1"/>
     <col min="14" max="14" width="13.19921875" style="8" customWidth="1"/>
     <col min="15" max="15" width="17.796875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="13.3984375" style="10" customWidth="1"/>
-    <col min="17" max="17" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17.796875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="13.3984375" style="10" customWidth="1"/>
+    <col min="19" max="19" width="13.3984375" style="12" customWidth="1"/>
+    <col min="20" max="20" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:20" s="24" customFormat="1">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="34" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="23" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="25" t="s">
+      <c r="M1" s="21"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="26"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,13 +692,13 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -683,13 +714,22 @@
         <v>9</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S2" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -702,8 +742,8 @@
       <c r="D3" s="3">
         <v>45791</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>17</v>
+      <c r="E3" s="3">
+        <v>45819</v>
       </c>
       <c r="F3" s="4">
         <v>45672</v>
@@ -714,13 +754,13 @@
       <c r="H3" s="4">
         <v>45684</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="32">
         <v>45651</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="28">
         <v>45700</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="28">
         <v>45714</v>
       </c>
       <c r="L3" s="7">
@@ -736,32 +776,44 @@
         <v>45684</v>
       </c>
       <c r="P3" s="9">
+        <v>45805</v>
+      </c>
+      <c r="Q3" s="41">
+        <v>45812</v>
+      </c>
+      <c r="R3" s="9">
         <v>45728</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="S3" s="42">
+        <v>45826</v>
+      </c>
+      <c r="T3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
+      <c r="B4" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="3">
         <v>45756</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="36">
         <v>45805</v>
       </c>
       <c r="G4" s="4">
         <v>45721</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <v>45714</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="28">
         <v>45749</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="28">
         <v>45763</v>
       </c>
       <c r="L4" s="5">
@@ -770,35 +822,38 @@
       <c r="M4" s="5">
         <v>45707</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="35">
         <v>45805</v>
       </c>
       <c r="O4" s="5">
         <v>45735</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9">
         <v>45777</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5" s="2">
         <v>45783</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="32">
         <v>45749</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="28">
         <v>45798</v>
       </c>
-      <c r="L5" s="17" t="s">
-        <v>17</v>
+      <c r="L5" s="35">
+        <v>45812</v>
       </c>
       <c r="M5" s="5">
         <v>45735</v>
@@ -807,37 +862,43 @@
       <c r="O5" s="5">
         <v>45777</v>
       </c>
-      <c r="P5" s="18">
-        <v>45826</v>
-      </c>
-      <c r="Q5" s="11"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:20">
+      <c r="A6" s="40">
+        <v>45825</v>
+      </c>
+      <c r="I6" s="32">
+        <v>45798</v>
+      </c>
+      <c r="J6" s="28"/>
+      <c r="K6" s="39">
         <v>45833</v>
       </c>
-      <c r="I6" s="35">
-        <v>45798</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5">
         <v>45763</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="11"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I7" s="36">
+    <row r="7" spans="1:20">
+      <c r="I7" s="33">
         <v>45847</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5">
         <v>45791</v>
@@ -845,7 +906,18 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="I8" s="43">
+        <v>45826</v>
+      </c>
+      <c r="M8" s="5">
+        <v>45819</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB66399E-34C1-458A-AF1C-474A52E6A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2727000-2B80-42A5-9E18-DB444E254067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,7 +299,6 @@
     <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -325,10 +324,11 @@
     <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -624,9 +624,9 @@
     <col min="6" max="6" width="17" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.19921875" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.796875" style="32" customWidth="1"/>
-    <col min="10" max="10" width="34.19921875" style="30" customWidth="1"/>
-    <col min="11" max="11" width="36.19921875" style="30" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="34.19921875" style="29" customWidth="1"/>
+    <col min="11" max="11" width="36.19921875" style="29" customWidth="1"/>
     <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
     <col min="13" max="13" width="18.5" style="5" customWidth="1"/>
     <col min="14" max="14" width="13.19921875" style="8" customWidth="1"/>
@@ -637,35 +637,35 @@
     <col min="20" max="20" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="24" customFormat="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:20" s="23" customFormat="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="31" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="20" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="21"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
@@ -692,13 +692,13 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -722,7 +722,7 @@
       <c r="R2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="37" t="s">
         <v>24</v>
       </c>
       <c r="T2" s="11" t="s">
@@ -754,13 +754,13 @@
       <c r="H3" s="4">
         <v>45684</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="31">
         <v>45651</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="27">
         <v>45700</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="27">
         <v>45714</v>
       </c>
       <c r="L3" s="7">
@@ -778,7 +778,7 @@
       <c r="P3" s="9">
         <v>45805</v>
       </c>
-      <c r="Q3" s="41">
+      <c r="Q3" s="39">
         <v>45812</v>
       </c>
       <c r="R3" s="9">
@@ -801,19 +801,19 @@
       <c r="C4" s="3">
         <v>45756</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>45805</v>
       </c>
       <c r="G4" s="4">
         <v>45721</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="31">
         <v>45714</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="27">
         <v>45749</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="27">
         <v>45763</v>
       </c>
       <c r="L4" s="5">
@@ -822,7 +822,7 @@
       <c r="M4" s="5">
         <v>45707</v>
       </c>
-      <c r="N4" s="35">
+      <c r="N4" s="34">
         <v>45805</v>
       </c>
       <c r="O4" s="5">
@@ -840,19 +840,19 @@
       <c r="A5" s="2">
         <v>45783</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="31">
         <v>45749</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <v>45798</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5" s="34">
         <v>45812</v>
       </c>
       <c r="M5" s="5">
@@ -864,19 +864,19 @@
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="37"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="36"/>
       <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="40">
+      <c r="A6" s="43">
         <v>45825</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <v>45798</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="39">
+      <c r="J6" s="27"/>
+      <c r="K6" s="38">
         <v>45833</v>
       </c>
       <c r="L6" s="5"/>
@@ -884,21 +884,21 @@
         <v>45763</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
+      <c r="O6" s="41">
+        <v>45833</v>
+      </c>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
       <c r="R6" s="9"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="I7" s="33">
+      <c r="I7" s="32">
         <v>45847</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5">
         <v>45791</v>
@@ -912,7 +912,7 @@
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="I8" s="43">
+      <c r="I8" s="40">
         <v>45826</v>
       </c>
       <c r="M8" s="5">

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2727000-2B80-42A5-9E18-DB444E254067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F5B09B-8D6A-4F2B-AAD9-5A6CCC958E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>使徒來襲(EVA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使徒絕響(EVA) 類似歌者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -323,12 +327,12 @@
     <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -609,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -633,11 +637,11 @@
     <col min="15" max="15" width="17.796875" style="8" customWidth="1"/>
     <col min="16" max="17" width="17.796875" style="10" customWidth="1"/>
     <col min="18" max="18" width="13.3984375" style="10" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" style="12" customWidth="1"/>
-    <col min="20" max="20" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.3984375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="23" customFormat="1">
+    <row r="1" spans="1:21" s="23" customFormat="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -666,8 +670,9 @@
       </c>
       <c r="S1" s="22"/>
       <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="16.5">
+    <row r="2" spans="1:21" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,11 +730,14 @@
       <c r="S2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -778,20 +786,23 @@
       <c r="P3" s="9">
         <v>45805</v>
       </c>
-      <c r="Q3" s="39">
+      <c r="Q3" s="38">
         <v>45812</v>
       </c>
       <c r="R3" s="9">
         <v>45728</v>
       </c>
-      <c r="S3" s="42">
+      <c r="S3" s="40">
         <v>45826</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="43">
+        <v>45840</v>
+      </c>
+      <c r="U3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
@@ -835,8 +846,9 @@
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>45783</v>
       </c>
@@ -866,25 +878,28 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="14"/>
       <c r="S5" s="36"/>
-      <c r="T5" s="11"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="43">
+    <row r="6" spans="1:21">
+      <c r="A6" s="41">
         <v>45825</v>
       </c>
       <c r="I6" s="31">
         <v>45798</v>
       </c>
       <c r="J6" s="27"/>
-      <c r="K6" s="38">
+      <c r="K6" s="42">
         <v>45833</v>
       </c>
-      <c r="L6" s="5"/>
+      <c r="L6" s="39">
+        <v>45840</v>
+      </c>
       <c r="M6" s="5">
         <v>45763</v>
       </c>
       <c r="N6" s="5"/>
-      <c r="O6" s="41">
+      <c r="O6" s="34">
         <v>45833</v>
       </c>
       <c r="P6" s="33"/>
@@ -892,8 +907,9 @@
       <c r="R6" s="9"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="I7" s="32">
         <v>45847</v>
       </c>
@@ -910,9 +926,10 @@
       <c r="R7" s="9"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
     </row>
-    <row r="8" spans="1:20">
-      <c r="I8" s="40">
+    <row r="8" spans="1:21">
+      <c r="I8" s="32">
         <v>45826</v>
       </c>
       <c r="M8" s="5">

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F5B09B-8D6A-4F2B-AAD9-5A6CCC958E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3190A65F-3180-4598-9F1A-4AD864BB30F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>使徒絕響(EVA) 類似歌者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔物爭霸(看怪物互打猜一方勝利)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,16 +184,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -288,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -321,18 +315,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -613,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -635,13 +627,13 @@
     <col min="13" max="13" width="18.5" style="5" customWidth="1"/>
     <col min="14" max="14" width="13.19921875" style="8" customWidth="1"/>
     <col min="15" max="15" width="17.796875" style="8" customWidth="1"/>
-    <col min="16" max="17" width="17.796875" style="10" customWidth="1"/>
-    <col min="18" max="18" width="13.3984375" style="10" customWidth="1"/>
-    <col min="19" max="20" width="13.3984375" style="12" customWidth="1"/>
-    <col min="21" max="21" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="17.796875" style="10" customWidth="1"/>
+    <col min="19" max="19" width="13.3984375" style="10" customWidth="1"/>
+    <col min="20" max="21" width="13.3984375" style="12" customWidth="1"/>
+    <col min="22" max="22" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="23" customFormat="1">
+    <row r="1" spans="1:22" s="23" customFormat="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -665,14 +657,15 @@
       <c r="O1" s="19"/>
       <c r="P1" s="21"/>
       <c r="Q1" s="21"/>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="22"/>
       <c r="T1" s="22"/>
       <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="16.5">
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,19 +718,22 @@
         <v>23</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="T2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="U2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -789,20 +785,23 @@
       <c r="Q3" s="38">
         <v>45812</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="38">
+        <v>45854</v>
+      </c>
+      <c r="S3" s="9">
         <v>45728</v>
       </c>
-      <c r="S3" s="40">
+      <c r="T3" s="39">
         <v>45826</v>
       </c>
-      <c r="T3" s="43">
+      <c r="U3" s="39">
         <v>45840</v>
       </c>
-      <c r="U3" s="11">
+      <c r="V3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
@@ -818,6 +817,9 @@
       <c r="G4" s="4">
         <v>45721</v>
       </c>
+      <c r="H4" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I4" s="31">
         <v>45714</v>
       </c>
@@ -841,25 +843,26 @@
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
-      <c r="R4" s="9">
+      <c r="R4" s="9"/>
+      <c r="S4" s="9">
         <v>45777</v>
       </c>
-      <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
         <v>45783</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>17</v>
+      <c r="G5" s="4">
+        <v>45854</v>
       </c>
       <c r="I5" s="31">
         <v>45749</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>17</v>
+      <c r="J5" s="27">
+        <v>45847</v>
       </c>
       <c r="K5" s="27">
         <v>45798</v>
@@ -870,29 +873,32 @@
       <c r="M5" s="5">
         <v>45735</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="5">
+        <v>45854</v>
+      </c>
       <c r="O5" s="5">
         <v>45777</v>
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="36"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="36"/>
-      <c r="U5" s="11"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="11"/>
     </row>
-    <row r="6" spans="1:21">
-      <c r="A6" s="41">
+    <row r="6" spans="1:22">
+      <c r="A6" s="40">
         <v>45825</v>
       </c>
       <c r="I6" s="31">
         <v>45798</v>
       </c>
       <c r="J6" s="27"/>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <v>45833</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="34">
         <v>45840</v>
       </c>
       <c r="M6" s="5">
@@ -904,17 +910,20 @@
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="11"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="9"/>
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="I7" s="32">
         <v>45847</v>
       </c>
       <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
+      <c r="K7" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5">
         <v>45791</v>
@@ -924,16 +933,22 @@
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
-      <c r="S7" s="11"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="I8" s="32">
         <v>45826</v>
       </c>
       <c r="M8" s="5">
         <v>45819</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="M9" s="5">
+        <v>45847</v>
       </c>
     </row>
   </sheetData>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3190A65F-3180-4598-9F1A-4AD864BB30F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3412B41-F445-46B6-89C4-43850569B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -842,7 +842,9 @@
         <v>45735</v>
       </c>
       <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="9">
+        <v>45861</v>
+      </c>
       <c r="R4" s="9"/>
       <c r="S4" s="9">
         <v>45777</v>
@@ -917,8 +919,11 @@
       <c r="V6" s="11"/>
     </row>
     <row r="7" spans="1:22">
+      <c r="A7" s="2">
+        <v>45867</v>
+      </c>
       <c r="I7" s="32">
-        <v>45847</v>
+        <v>45826</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="28" t="s">
@@ -940,13 +945,16 @@
     </row>
     <row r="8" spans="1:22">
       <c r="I8" s="32">
-        <v>45826</v>
+        <v>45847</v>
       </c>
       <c r="M8" s="5">
         <v>45819</v>
       </c>
     </row>
     <row r="9" spans="1:22">
+      <c r="I9" s="31">
+        <v>45861</v>
+      </c>
       <c r="M9" s="5">
         <v>45847</v>
       </c>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3412B41-F445-46B6-89C4-43850569B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9D0FE-0B5E-4FC2-A5EF-A8F64171F4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -608,7 +608,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -817,8 +817,8 @@
       <c r="G4" s="4">
         <v>45721</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>17</v>
+      <c r="H4" s="4">
+        <v>45868</v>
       </c>
       <c r="I4" s="31">
         <v>45714</v>
@@ -893,6 +893,9 @@
       <c r="A6" s="40">
         <v>45825</v>
       </c>
+      <c r="G6" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" s="31">
         <v>45798</v>
       </c>
@@ -934,7 +937,9 @@
         <v>45791</v>
       </c>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5">
+        <v>45868</v>
+      </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E9D0FE-0B5E-4FC2-A5EF-A8F64171F4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C4CBA-79A9-43C0-8E0B-8B2A81EB3156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>魔物爭霸(看怪物互打猜一方勝利)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切水果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -628,12 +632,12 @@
     <col min="14" max="14" width="13.19921875" style="8" customWidth="1"/>
     <col min="15" max="15" width="17.796875" style="8" customWidth="1"/>
     <col min="16" max="18" width="17.796875" style="10" customWidth="1"/>
-    <col min="19" max="19" width="13.3984375" style="10" customWidth="1"/>
-    <col min="20" max="21" width="13.3984375" style="12" customWidth="1"/>
-    <col min="22" max="22" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.3984375" style="10" customWidth="1"/>
+    <col min="21" max="22" width="13.3984375" style="12" customWidth="1"/>
+    <col min="23" max="23" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="23" customFormat="1">
+    <row r="1" spans="1:23" s="23" customFormat="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -661,11 +665,12 @@
       <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="22"/>
+      <c r="T1" s="21"/>
       <c r="U1" s="22"/>
       <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="16.5">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,17 +728,20 @@
       <c r="S2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="V2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -791,17 +799,20 @@
       <c r="S3" s="9">
         <v>45728</v>
       </c>
-      <c r="T3" s="39">
+      <c r="T3" s="9">
+        <v>45875</v>
+      </c>
+      <c r="U3" s="39">
         <v>45826</v>
       </c>
-      <c r="U3" s="39">
+      <c r="V3" s="39">
         <v>45840</v>
       </c>
-      <c r="V3" s="11">
+      <c r="W3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
@@ -849,13 +860,22 @@
       <c r="S4" s="9">
         <v>45777</v>
       </c>
-      <c r="T4" s="11"/>
+      <c r="T4" s="9"/>
       <c r="U4" s="11"/>
       <c r="V4" s="11"/>
+      <c r="W4" s="11">
+        <v>45875</v>
+      </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>45783</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45875</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="4">
         <v>45854</v>
@@ -885,16 +905,14 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="36"/>
+      <c r="T5" s="14"/>
       <c r="U5" s="36"/>
-      <c r="V5" s="11"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="11"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:23">
       <c r="A6" s="40">
         <v>45825</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="I6" s="31">
         <v>45798</v>
@@ -917,11 +935,12 @@
       <c r="Q6" s="33"/>
       <c r="R6" s="33"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="11"/>
+      <c r="T6" s="9"/>
       <c r="U6" s="11"/>
       <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>45867</v>
       </c>
@@ -944,11 +963,12 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="11"/>
+      <c r="T7" s="9"/>
       <c r="U7" s="11"/>
       <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:23">
       <c r="I8" s="32">
         <v>45847</v>
       </c>
@@ -956,7 +976,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="I9" s="31">
         <v>45861</v>
       </c>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45C4CBA-79A9-43C0-8E0B-8B2A81EB3156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0BD0F9-9CAF-4B05-92BF-22CE3A7D5730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>切水果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地盤我最大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -329,6 +333,7 @@
     <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -609,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -625,19 +630,19 @@
     <col min="7" max="7" width="16.19921875" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.796875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="34.19921875" style="29" customWidth="1"/>
-    <col min="11" max="11" width="36.19921875" style="29" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13.19921875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.796875" style="8" customWidth="1"/>
-    <col min="16" max="18" width="17.796875" style="10" customWidth="1"/>
-    <col min="19" max="20" width="13.3984375" style="10" customWidth="1"/>
-    <col min="21" max="22" width="13.3984375" style="12" customWidth="1"/>
-    <col min="23" max="23" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="34.19921875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="36.19921875" style="29" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="8" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.19921875" style="8" customWidth="1"/>
+    <col min="16" max="16" width="17.796875" style="8" customWidth="1"/>
+    <col min="17" max="19" width="17.796875" style="10" customWidth="1"/>
+    <col min="20" max="21" width="13.3984375" style="10" customWidth="1"/>
+    <col min="22" max="23" width="13.3984375" style="12" customWidth="1"/>
+    <col min="24" max="24" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="23" customFormat="1">
+    <row r="1" spans="1:24" s="23" customFormat="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -653,24 +658,25 @@
       </c>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="19"/>
+      <c r="N1" s="20"/>
       <c r="O1" s="19"/>
-      <c r="P1" s="21"/>
+      <c r="P1" s="19"/>
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21"/>
-      <c r="U1" s="22"/>
+      <c r="U1" s="21"/>
       <c r="V1" s="22"/>
       <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="16.5">
+    <row r="2" spans="1:24" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,47 +707,50 @@
       <c r="J2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="V2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="W2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -773,46 +782,49 @@
         <v>45700</v>
       </c>
       <c r="K3" s="27">
+        <v>45889</v>
+      </c>
+      <c r="L3" s="27">
         <v>45714</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>45700</v>
       </c>
-      <c r="M3" s="5">
+      <c r="N3" s="5">
         <v>45672</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>45721</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>45684</v>
       </c>
-      <c r="P3" s="9">
+      <c r="Q3" s="9">
         <v>45805</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="R3" s="38">
         <v>45812</v>
       </c>
-      <c r="R3" s="38">
+      <c r="S3" s="38">
         <v>45854</v>
       </c>
-      <c r="S3" s="9">
+      <c r="T3" s="9">
         <v>45728</v>
       </c>
-      <c r="T3" s="9">
+      <c r="U3" s="9">
         <v>45875</v>
       </c>
-      <c r="U3" s="39">
+      <c r="V3" s="39">
         <v>45826</v>
       </c>
-      <c r="V3" s="39">
+      <c r="W3" s="39">
         <v>45840</v>
       </c>
-      <c r="W3" s="11">
+      <c r="X3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
@@ -837,45 +849,46 @@
       <c r="J4" s="27">
         <v>45749</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27">
         <v>45763</v>
       </c>
-      <c r="L4" s="5">
+      <c r="M4" s="5">
         <v>45728</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>45707</v>
       </c>
-      <c r="N4" s="34">
+      <c r="O4" s="34">
         <v>45805</v>
       </c>
-      <c r="O4" s="5">
+      <c r="P4" s="5">
         <v>45735</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9">
         <v>45861</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9">
         <v>45777</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="11"/>
+      <c r="U4" s="9"/>
       <c r="V4" s="11"/>
-      <c r="W4" s="11">
+      <c r="W4" s="11"/>
+      <c r="X4" s="11">
         <v>45875</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" s="2">
         <v>45783</v>
       </c>
       <c r="C5" s="3">
         <v>45875</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>17</v>
+      <c r="F5" s="42">
+        <v>45882</v>
       </c>
       <c r="G5" s="4">
         <v>45854</v>
@@ -886,61 +899,66 @@
       <c r="J5" s="27">
         <v>45847</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27">
         <v>45798</v>
       </c>
-      <c r="L5" s="34">
+      <c r="M5" s="34">
         <v>45812</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>45735</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>45854</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>45777</v>
       </c>
-      <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
-      <c r="S5" s="14"/>
+      <c r="S5" s="9"/>
       <c r="T5" s="14"/>
-      <c r="U5" s="36"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="36"/>
-      <c r="W5" s="11"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" s="40">
         <v>45825</v>
       </c>
+      <c r="G6" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" s="31">
         <v>45798</v>
       </c>
       <c r="J6" s="27"/>
-      <c r="K6" s="41">
+      <c r="K6" s="27"/>
+      <c r="L6" s="41">
         <v>45833</v>
       </c>
-      <c r="L6" s="34">
+      <c r="M6" s="34">
         <v>45840</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>45763</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="34">
+      <c r="O6" s="5"/>
+      <c r="P6" s="34">
         <v>45833</v>
       </c>
-      <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
       <c r="R6" s="33"/>
-      <c r="S6" s="9"/>
+      <c r="S6" s="33"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="11"/>
+      <c r="U6" s="9"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" s="2">
         <v>45867</v>
       </c>
@@ -948,40 +966,46 @@
         <v>45826</v>
       </c>
       <c r="J7" s="27"/>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="27"/>
+      <c r="L7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5">
+      <c r="M7" s="5"/>
+      <c r="N7" s="5">
         <v>45791</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5">
         <v>45868</v>
       </c>
-      <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="11"/>
+      <c r="U7" s="9"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="I8" s="32">
         <v>45847</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>45819</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="I9" s="31">
         <v>45861</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>45847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="I10" s="31">
+        <v>45889</v>
       </c>
     </row>
   </sheetData>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0BD0F9-9CAF-4B05-92BF-22CE3A7D5730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2299E3-C2E6-46A3-902C-A6EFD8FA33DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -333,7 +333,6 @@
     <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -617,7 +616,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -887,11 +886,14 @@
       <c r="C5" s="3">
         <v>45875</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="4">
         <v>45882</v>
       </c>
       <c r="G5" s="4">
         <v>45854</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I5" s="31">
         <v>45749</v>
@@ -928,8 +930,8 @@
       <c r="A6" s="40">
         <v>45825</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>17</v>
+      <c r="G6" s="4">
+        <v>45896</v>
       </c>
       <c r="I6" s="31">
         <v>45798</v>
@@ -945,7 +947,9 @@
       <c r="N6" s="5">
         <v>45763</v>
       </c>
-      <c r="O6" s="5"/>
+      <c r="O6" s="5">
+        <v>45896</v>
+      </c>
       <c r="P6" s="34">
         <v>45833</v>
       </c>
@@ -988,6 +992,7 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24">
+      <c r="A8" s="40"/>
       <c r="I8" s="32">
         <v>45847</v>
       </c>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2299E3-C2E6-46A3-902C-A6EFD8FA33DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41D6372-BB5D-40E7-8D59-D7120CA78CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -333,6 +333,7 @@
     <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -615,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -920,7 +921,9 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="14"/>
+      <c r="T5" s="42">
+        <v>45903</v>
+      </c>
       <c r="U5" s="14"/>
       <c r="V5" s="36"/>
       <c r="W5" s="36"/>
@@ -974,7 +977,9 @@
       <c r="L7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="5">
+        <v>45903</v>
+      </c>
       <c r="N7" s="5">
         <v>45791</v>
       </c>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41D6372-BB5D-40E7-8D59-D7120CA78CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7769D31-7DE7-4104-89CF-0D27DE551D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -333,7 +333,6 @@
     <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -614,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -828,11 +827,14 @@
       <c r="A4" s="2">
         <v>45734</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>17</v>
+      <c r="B4" s="3">
+        <v>45910</v>
       </c>
       <c r="C4" s="3">
         <v>45756</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="35">
         <v>45805</v>
@@ -869,7 +871,9 @@
       <c r="R4" s="9">
         <v>45861</v>
       </c>
-      <c r="S4" s="9"/>
+      <c r="S4" s="9">
+        <v>45912</v>
+      </c>
       <c r="T4" s="9">
         <v>45777</v>
       </c>
@@ -921,7 +925,7 @@
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="42">
+      <c r="T5" s="9">
         <v>45903</v>
       </c>
       <c r="U5" s="14"/>
@@ -939,7 +943,9 @@
       <c r="I6" s="31">
         <v>45798</v>
       </c>
-      <c r="J6" s="27"/>
+      <c r="J6" s="28" t="s">
+        <v>17</v>
+      </c>
       <c r="K6" s="27"/>
       <c r="L6" s="41">
         <v>45833</v>
@@ -974,8 +980,8 @@
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
-      <c r="L7" s="28" t="s">
-        <v>17</v>
+      <c r="L7" s="27">
+        <v>45917</v>
       </c>
       <c r="M7" s="5">
         <v>45903</v>
@@ -997,12 +1003,17 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="40"/>
+      <c r="A8" s="40">
+        <v>45909</v>
+      </c>
       <c r="I8" s="32">
         <v>45847</v>
       </c>
       <c r="N8" s="5">
         <v>45819</v>
+      </c>
+      <c r="P8" s="34">
+        <v>45910</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1016,6 +1027,11 @@
     <row r="10" spans="1:24">
       <c r="I10" s="31">
         <v>45889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="I11" s="31">
+        <v>45917</v>
       </c>
     </row>
   </sheetData>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7769D31-7DE7-4104-89CF-0D27DE551D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8211F4-45F3-475F-BF45-EC1295B67521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27660" yWindow="1140" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1028,6 +1028,9 @@
       <c r="I10" s="31">
         <v>45889</v>
       </c>
+      <c r="N10" s="5">
+        <v>45917</v>
+      </c>
     </row>
     <row r="11" spans="1:24">
       <c r="I11" s="31">

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8211F4-45F3-475F-BF45-EC1295B67521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63B0DF2-40D3-4F7C-BE7B-ABEF177426DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -333,6 +333,7 @@
     <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -615,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -836,6 +837,9 @@
       <c r="D4" s="13" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="3">
+        <v>45931</v>
+      </c>
       <c r="F4" s="35">
         <v>45805</v>
       </c>
@@ -923,7 +927,9 @@
         <v>45777</v>
       </c>
       <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="R5" s="9">
+        <v>45931</v>
+      </c>
       <c r="S5" s="9"/>
       <c r="T5" s="9">
         <v>45903</v>
@@ -936,6 +942,9 @@
     <row r="6" spans="1:24">
       <c r="A6" s="40">
         <v>45825</v>
+      </c>
+      <c r="F6" s="4">
+        <v>45924</v>
       </c>
       <c r="G6" s="4">
         <v>45896</v>
@@ -989,7 +998,9 @@
       <c r="N7" s="5">
         <v>45791</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="5">
+        <v>45924</v>
+      </c>
       <c r="P7" s="5">
         <v>45868</v>
       </c>
@@ -1009,6 +1020,9 @@
       <c r="I8" s="32">
         <v>45847</v>
       </c>
+      <c r="M8" s="5">
+        <v>45931</v>
+      </c>
       <c r="N8" s="5">
         <v>45819</v>
       </c>
@@ -1020,6 +1034,7 @@
       <c r="I9" s="31">
         <v>45861</v>
       </c>
+      <c r="M9" s="42"/>
       <c r="N9" s="5">
         <v>45847</v>
       </c>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63B0DF2-40D3-4F7C-BE7B-ABEF177426DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025C834-0579-488E-9124-F34600179DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -319,7 +319,6 @@
     <xf numFmtId="176" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -616,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -629,9 +628,9 @@
     <col min="6" max="6" width="17" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.19921875" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.796875" style="31" customWidth="1"/>
-    <col min="10" max="11" width="34.19921875" style="29" customWidth="1"/>
-    <col min="12" max="12" width="36.19921875" style="29" customWidth="1"/>
+    <col min="9" max="9" width="20.796875" style="30" customWidth="1"/>
+    <col min="10" max="11" width="34.19921875" style="28" customWidth="1"/>
+    <col min="12" max="12" width="36.19921875" style="28" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="8" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="5" customWidth="1"/>
     <col min="15" max="15" width="13.19921875" style="8" customWidth="1"/>
@@ -653,7 +652,7 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>20</v>
       </c>
       <c r="J1" s="24"/>
@@ -701,7 +700,7 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="25" t="s">
@@ -740,10 +739,10 @@
       <c r="U2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="36" t="s">
         <v>25</v>
       </c>
       <c r="X2" s="11" t="s">
@@ -775,7 +774,7 @@
       <c r="H3" s="4">
         <v>45684</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <v>45651</v>
       </c>
       <c r="J3" s="27">
@@ -802,10 +801,10 @@
       <c r="Q3" s="9">
         <v>45805</v>
       </c>
-      <c r="R3" s="38">
+      <c r="R3" s="37">
         <v>45812</v>
       </c>
-      <c r="S3" s="38">
+      <c r="S3" s="37">
         <v>45854</v>
       </c>
       <c r="T3" s="9">
@@ -814,10 +813,10 @@
       <c r="U3" s="9">
         <v>45875</v>
       </c>
-      <c r="V3" s="39">
+      <c r="V3" s="38">
         <v>45826</v>
       </c>
-      <c r="W3" s="39">
+      <c r="W3" s="38">
         <v>45840</v>
       </c>
       <c r="X3" s="11">
@@ -840,7 +839,7 @@
       <c r="E4" s="3">
         <v>45931</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="34">
         <v>45805</v>
       </c>
       <c r="G4" s="4">
@@ -849,7 +848,7 @@
       <c r="H4" s="4">
         <v>45868</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="30">
         <v>45714</v>
       </c>
       <c r="J4" s="27">
@@ -865,7 +864,7 @@
       <c r="N4" s="5">
         <v>45707</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="33">
         <v>45805</v>
       </c>
       <c r="P4" s="5">
@@ -904,7 +903,7 @@
       <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="30">
         <v>45749</v>
       </c>
       <c r="J5" s="27">
@@ -914,7 +913,7 @@
       <c r="L5" s="27">
         <v>45798</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <v>45812</v>
       </c>
       <c r="N5" s="5">
@@ -935,12 +934,12 @@
         <v>45903</v>
       </c>
       <c r="U5" s="14"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
       <c r="X5" s="11"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="40">
+      <c r="A6" s="39">
         <v>45825</v>
       </c>
       <c r="F6" s="4">
@@ -949,17 +948,17 @@
       <c r="G6" s="4">
         <v>45896</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="30">
         <v>45798</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>17</v>
+      <c r="J6" s="40">
+        <v>45938</v>
       </c>
       <c r="K6" s="27"/>
-      <c r="L6" s="41">
+      <c r="L6" s="40">
         <v>45833</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <v>45840</v>
       </c>
       <c r="N6" s="5">
@@ -968,12 +967,12 @@
       <c r="O6" s="5">
         <v>45896</v>
       </c>
-      <c r="P6" s="34">
+      <c r="P6" s="33">
         <v>45833</v>
       </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
       <c r="V6" s="11"/>
@@ -984,7 +983,7 @@
       <c r="A7" s="2">
         <v>45867</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="31">
         <v>45826</v>
       </c>
       <c r="J7" s="27"/>
@@ -1014,10 +1013,10 @@
       <c r="X7" s="11"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="40">
+      <c r="A8" s="39">
         <v>45909</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>45847</v>
       </c>
       <c r="M8" s="5">
@@ -1026,21 +1025,21 @@
       <c r="N8" s="5">
         <v>45819</v>
       </c>
-      <c r="P8" s="34">
+      <c r="P8" s="33">
         <v>45910</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="I9" s="31">
+      <c r="I9" s="30">
         <v>45861</v>
       </c>
-      <c r="M9" s="42"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="5">
         <v>45847</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="I10" s="31">
+      <c r="I10" s="30">
         <v>45889</v>
       </c>
       <c r="N10" s="5">
@@ -1048,8 +1047,11 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <v>45917</v>
+      </c>
+      <c r="N11" s="5">
+        <v>45938</v>
       </c>
     </row>
   </sheetData>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3025C834-0579-488E-9124-F34600179DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745FD37A-B880-495D-8E55-1116A3A0BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -332,7 +332,6 @@
     <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -615,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -983,6 +982,9 @@
       <c r="A7" s="2">
         <v>45867</v>
       </c>
+      <c r="G7" s="4">
+        <v>45945</v>
+      </c>
       <c r="I7" s="31">
         <v>45826</v>
       </c>
@@ -1033,7 +1035,9 @@
       <c r="I9" s="30">
         <v>45861</v>
       </c>
-      <c r="M9" s="41"/>
+      <c r="M9" s="5">
+        <v>45945</v>
+      </c>
       <c r="N9" s="5">
         <v>45847</v>
       </c>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745FD37A-B880-495D-8E55-1116A3A0BDC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D079DE49-28BA-4E06-8304-DD3C38BFC6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>地盤我最大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶巢崖(香格里拉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走格子遊記(香格里拉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時裝大賽(香格里拉)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -636,11 +648,11 @@
     <col min="16" max="16" width="17.796875" style="8" customWidth="1"/>
     <col min="17" max="19" width="17.796875" style="10" customWidth="1"/>
     <col min="20" max="21" width="13.3984375" style="10" customWidth="1"/>
-    <col min="22" max="23" width="13.3984375" style="12" customWidth="1"/>
-    <col min="24" max="24" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="26" width="13.3984375" style="12" customWidth="1"/>
+    <col min="27" max="27" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="23" customFormat="1">
+    <row r="1" spans="1:27" s="23" customFormat="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -673,8 +685,11 @@
       <c r="V1" s="22"/>
       <c r="W1" s="22"/>
       <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" ht="16.5">
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -744,11 +759,20 @@
       <c r="W2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:27">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -818,11 +842,20 @@
       <c r="W3" s="38">
         <v>45840</v>
       </c>
-      <c r="X3" s="11">
+      <c r="X3" s="38">
+        <v>45952</v>
+      </c>
+      <c r="Y3" s="38">
+        <v>45952</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>45952</v>
+      </c>
+      <c r="AA3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:27">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
@@ -882,11 +915,14 @@
       <c r="U4" s="9"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="11">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11">
         <v>45875</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:27">
       <c r="A5" s="2">
         <v>45783</v>
       </c>
@@ -935,9 +971,12 @@
       <c r="U5" s="14"/>
       <c r="V5" s="35"/>
       <c r="W5" s="35"/>
-      <c r="X5" s="11"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="11"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:27">
       <c r="A6" s="39">
         <v>45825</v>
       </c>
@@ -977,8 +1016,11 @@
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:27">
       <c r="A7" s="2">
         <v>45867</v>
       </c>
@@ -1013,8 +1055,11 @@
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:27">
       <c r="A8" s="39">
         <v>45909</v>
       </c>
@@ -1031,7 +1076,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:27">
       <c r="I9" s="30">
         <v>45861</v>
       </c>
@@ -1042,7 +1087,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:27">
       <c r="I10" s="30">
         <v>45889</v>
       </c>
@@ -1050,7 +1095,7 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:27">
       <c r="I11" s="30">
         <v>45917</v>
       </c>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D079DE49-28BA-4E06-8304-DD3C38BFC6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602CA305-D72A-4E1F-9572-032EC4004E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>時裝大賽(香格里拉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最強魔物(40天大活動)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AB12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -646,13 +650,13 @@
     <col min="14" max="14" width="18.5" style="5" customWidth="1"/>
     <col min="15" max="15" width="13.19921875" style="8" customWidth="1"/>
     <col min="16" max="16" width="17.796875" style="8" customWidth="1"/>
-    <col min="17" max="19" width="17.796875" style="10" customWidth="1"/>
-    <col min="20" max="21" width="13.3984375" style="10" customWidth="1"/>
-    <col min="22" max="26" width="13.3984375" style="12" customWidth="1"/>
-    <col min="27" max="27" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="17.796875" style="10" customWidth="1"/>
+    <col min="21" max="22" width="13.3984375" style="10" customWidth="1"/>
+    <col min="23" max="27" width="13.3984375" style="12" customWidth="1"/>
+    <col min="28" max="28" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="23" customFormat="1">
+    <row r="1" spans="1:28" s="23" customFormat="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -678,18 +682,19 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="21"/>
+      <c r="U1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22"/>
+      <c r="V1" s="21"/>
       <c r="W1" s="22"/>
       <c r="X1" s="22"/>
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="16.5">
+    <row r="2" spans="1:28" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,31 +753,34 @@
         <v>26</v>
       </c>
       <c r="T2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="36" t="s">
+      <c r="W2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="X2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="Y2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Z2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -830,20 +838,20 @@
       <c r="S3" s="37">
         <v>45854</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="37">
+        <v>45966</v>
+      </c>
+      <c r="U3" s="9">
         <v>45728</v>
       </c>
-      <c r="U3" s="9">
+      <c r="V3" s="9">
         <v>45875</v>
       </c>
-      <c r="V3" s="38">
+      <c r="W3" s="38">
         <v>45826</v>
       </c>
-      <c r="W3" s="38">
+      <c r="X3" s="38">
         <v>45840</v>
-      </c>
-      <c r="X3" s="38">
-        <v>45952</v>
       </c>
       <c r="Y3" s="38">
         <v>45952</v>
@@ -851,11 +859,14 @@
       <c r="Z3" s="38">
         <v>45952</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="38">
+        <v>45952</v>
+      </c>
+      <c r="AB3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
@@ -909,20 +920,21 @@
       <c r="S4" s="9">
         <v>45912</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="9"/>
+      <c r="U4" s="9">
         <v>45777</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="11"/>
+      <c r="V4" s="9"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
-      <c r="AA4" s="11">
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11">
         <v>45875</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="2">
         <v>45783</v>
       </c>
@@ -964,19 +976,22 @@
       <c r="R5" s="9">
         <v>45931</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9">
+      <c r="S5" s="9">
+        <v>45966</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9">
         <v>45903</v>
       </c>
-      <c r="U5" s="14"/>
-      <c r="V5" s="35"/>
+      <c r="V5" s="14"/>
       <c r="W5" s="35"/>
       <c r="X5" s="35"/>
       <c r="Y5" s="35"/>
       <c r="Z5" s="35"/>
-      <c r="AA5" s="11"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="11"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="39">
         <v>45825</v>
       </c>
@@ -1009,18 +1024,21 @@
         <v>45833</v>
       </c>
       <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
+      <c r="R6" s="9">
+        <v>45966</v>
+      </c>
       <c r="S6" s="32"/>
-      <c r="T6" s="9"/>
+      <c r="T6" s="32"/>
       <c r="U6" s="9"/>
-      <c r="V6" s="11"/>
+      <c r="V6" s="9"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="2">
         <v>45867</v>
       </c>
@@ -1052,14 +1070,15 @@
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
-      <c r="V7" s="11"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="39">
         <v>45909</v>
       </c>
@@ -1076,7 +1095,7 @@
         <v>45910</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="I9" s="30">
         <v>45861</v>
       </c>
@@ -1087,7 +1106,7 @@
         <v>45847</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="I10" s="30">
         <v>45889</v>
       </c>
@@ -1095,12 +1114,17 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="I11" s="30">
         <v>45917</v>
       </c>
       <c r="N11" s="5">
         <v>45938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="I12" s="30">
+        <v>45959</v>
       </c>
     </row>
   </sheetData>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602CA305-D72A-4E1F-9572-032EC4004E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BC6EA3-E0D8-4291-9980-627FD7C7E09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>最強魔物(40天大活動)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守墓戰鬥(香格里拉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麥其林餐廳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +172,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +233,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080809"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -306,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -348,6 +363,7 @@
     <xf numFmtId="176" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -628,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -648,15 +664,15 @@
     <col min="12" max="12" width="36.19921875" style="28" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="8" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="13.19921875" style="8" customWidth="1"/>
-    <col min="16" max="16" width="17.796875" style="8" customWidth="1"/>
-    <col min="17" max="20" width="17.796875" style="10" customWidth="1"/>
-    <col min="21" max="22" width="13.3984375" style="10" customWidth="1"/>
-    <col min="23" max="27" width="13.3984375" style="12" customWidth="1"/>
-    <col min="28" max="28" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.19921875" style="8" customWidth="1"/>
+    <col min="17" max="17" width="17.796875" style="8" customWidth="1"/>
+    <col min="18" max="21" width="17.796875" style="10" customWidth="1"/>
+    <col min="22" max="23" width="13.3984375" style="10" customWidth="1"/>
+    <col min="24" max="29" width="13.3984375" style="12" customWidth="1"/>
+    <col min="30" max="30" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="23" customFormat="1">
+    <row r="1" spans="1:30" s="23" customFormat="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -679,22 +695,24 @@
       <c r="N1" s="20"/>
       <c r="O1" s="19"/>
       <c r="P1" s="19"/>
-      <c r="Q1" s="21"/>
+      <c r="Q1" s="19"/>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="21"/>
+      <c r="V1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="22"/>
+      <c r="W1" s="21"/>
       <c r="X1" s="22"/>
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
       <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="16.5">
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -740,47 +758,53 @@
       <c r="O2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="36" t="s">
+      <c r="X2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="Y2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Z2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AB2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:30">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -827,34 +851,34 @@
         <v>45721</v>
       </c>
       <c r="P3" s="5">
+        <v>45980</v>
+      </c>
+      <c r="Q3" s="5">
         <v>45684</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="R3" s="9">
         <v>45805</v>
       </c>
-      <c r="R3" s="37">
+      <c r="S3" s="37">
         <v>45812</v>
       </c>
-      <c r="S3" s="37">
+      <c r="T3" s="37">
         <v>45854</v>
       </c>
-      <c r="T3" s="37">
+      <c r="U3" s="37">
         <v>45966</v>
       </c>
-      <c r="U3" s="9">
+      <c r="V3" s="9">
         <v>45728</v>
       </c>
-      <c r="V3" s="9">
+      <c r="W3" s="9">
         <v>45875</v>
       </c>
-      <c r="W3" s="38">
+      <c r="X3" s="38">
         <v>45826</v>
       </c>
-      <c r="X3" s="38">
+      <c r="Y3" s="38">
         <v>45840</v>
-      </c>
-      <c r="Y3" s="38">
-        <v>45952</v>
       </c>
       <c r="Z3" s="38">
         <v>45952</v>
@@ -862,11 +886,17 @@
       <c r="AA3" s="38">
         <v>45952</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="38">
+        <v>45952</v>
+      </c>
+      <c r="AC3" s="38">
+        <v>45973</v>
+      </c>
+      <c r="AD3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:30">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
@@ -876,8 +906,8 @@
       <c r="C4" s="3">
         <v>45756</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>17</v>
+      <c r="D4" s="3">
+        <v>45987</v>
       </c>
       <c r="E4" s="3">
         <v>45931</v>
@@ -910,36 +940,41 @@
       <c r="O4" s="33">
         <v>45805</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="5">
         <v>45735</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9">
+      <c r="R4" s="9"/>
+      <c r="S4" s="9">
         <v>45861</v>
       </c>
-      <c r="S4" s="9">
+      <c r="T4" s="9">
         <v>45912</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9">
+      <c r="U4" s="9"/>
+      <c r="V4" s="9">
         <v>45777</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="11"/>
+      <c r="W4" s="9"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
-      <c r="AB4" s="11">
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11">
         <v>45875</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:30">
       <c r="A5" s="2">
         <v>45783</v>
       </c>
       <c r="C5" s="3">
         <v>45875</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="4">
         <v>45882</v>
@@ -969,29 +1004,31 @@
       <c r="O5" s="5">
         <v>45854</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5">
         <v>45777</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9">
+      <c r="R5" s="9"/>
+      <c r="S5" s="9">
         <v>45931</v>
       </c>
-      <c r="S5" s="9">
+      <c r="T5" s="9">
         <v>45966</v>
       </c>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9">
+      <c r="U5" s="9"/>
+      <c r="V5" s="9">
         <v>45903</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="35"/>
+      <c r="W5" s="14"/>
       <c r="X5" s="35"/>
       <c r="Y5" s="35"/>
       <c r="Z5" s="35"/>
       <c r="AA5" s="35"/>
-      <c r="AB5" s="11"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="11"/>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:30">
       <c r="A6" s="39">
         <v>45825</v>
       </c>
@@ -1020,25 +1057,27 @@
       <c r="O6" s="5">
         <v>45896</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="33">
         <v>45833</v>
       </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="9">
+      <c r="R6" s="32"/>
+      <c r="S6" s="9">
         <v>45966</v>
       </c>
-      <c r="S6" s="32"/>
       <c r="T6" s="32"/>
-      <c r="U6" s="9"/>
+      <c r="U6" s="32"/>
       <c r="V6" s="9"/>
-      <c r="W6" s="11"/>
+      <c r="W6" s="9"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:30">
       <c r="A7" s="2">
         <v>45867</v>
       </c>
@@ -1062,40 +1101,45 @@
       <c r="O7" s="5">
         <v>45924</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
         <v>45868</v>
       </c>
-      <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
-      <c r="W7" s="11"/>
+      <c r="W7" s="9"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:30">
       <c r="A8" s="39">
         <v>45909</v>
       </c>
       <c r="I8" s="31">
         <v>45847</v>
       </c>
+      <c r="L8" s="27">
+        <v>45980</v>
+      </c>
       <c r="M8" s="5">
         <v>45931</v>
       </c>
       <c r="N8" s="5">
         <v>45819</v>
       </c>
-      <c r="P8" s="33">
+      <c r="Q8" s="33">
         <v>45910</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:30">
       <c r="I9" s="30">
         <v>45861</v>
       </c>
@@ -1105,16 +1149,22 @@
       <c r="N9" s="5">
         <v>45847</v>
       </c>
+      <c r="Q9" s="5">
+        <v>45987</v>
+      </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:30">
       <c r="I10" s="30">
         <v>45889</v>
       </c>
+      <c r="M10" s="5">
+        <v>45980</v>
+      </c>
       <c r="N10" s="5">
         <v>45917</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:30">
       <c r="I11" s="30">
         <v>45917</v>
       </c>
@@ -1122,9 +1172,12 @@
         <v>45938</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:30">
       <c r="I12" s="30">
         <v>45959</v>
+      </c>
+      <c r="N12" s="5">
+        <v>45987</v>
       </c>
     </row>
   </sheetData>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BC6EA3-E0D8-4291-9980-627FD7C7E09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B1814-F801-47CB-AEFF-2D6375729423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>麥其林餐廳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開蓋有獎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -663,16 +667,16 @@
     <col min="10" max="11" width="34.19921875" style="28" customWidth="1"/>
     <col min="12" max="12" width="36.19921875" style="28" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="5" customWidth="1"/>
-    <col min="15" max="16" width="13.19921875" style="8" customWidth="1"/>
-    <col min="17" max="17" width="17.796875" style="8" customWidth="1"/>
-    <col min="18" max="21" width="17.796875" style="10" customWidth="1"/>
-    <col min="22" max="23" width="13.3984375" style="10" customWidth="1"/>
-    <col min="24" max="29" width="13.3984375" style="12" customWidth="1"/>
-    <col min="30" max="30" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.5" style="5" customWidth="1"/>
+    <col min="16" max="17" width="13.19921875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="17.796875" style="8" customWidth="1"/>
+    <col min="19" max="22" width="17.796875" style="10" customWidth="1"/>
+    <col min="23" max="24" width="13.3984375" style="10" customWidth="1"/>
+    <col min="25" max="30" width="13.3984375" style="12" customWidth="1"/>
+    <col min="31" max="31" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="23" customFormat="1">
+    <row r="1" spans="1:31" s="23" customFormat="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -693,26 +697,27 @@
         <v>21</v>
       </c>
       <c r="N1" s="20"/>
-      <c r="O1" s="19"/>
+      <c r="O1" s="20"/>
       <c r="P1" s="19"/>
       <c r="Q1" s="19"/>
-      <c r="R1" s="21"/>
+      <c r="R1" s="19"/>
       <c r="S1" s="21"/>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="21"/>
-      <c r="X1" s="22"/>
+      <c r="X1" s="21"/>
       <c r="Y1" s="22"/>
       <c r="Z1" s="22"/>
       <c r="AA1" s="22"/>
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="16.5">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -755,56 +760,59 @@
       <c r="N2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="Q2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="Y2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Z2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AB2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AC2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AD2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AE2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -848,40 +856,40 @@
         <v>45672</v>
       </c>
       <c r="O3" s="5">
+        <v>46001</v>
+      </c>
+      <c r="P3" s="5">
         <v>45721</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>45980</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>45684</v>
       </c>
-      <c r="R3" s="9">
+      <c r="S3" s="9">
         <v>45805</v>
       </c>
-      <c r="S3" s="37">
+      <c r="T3" s="37">
         <v>45812</v>
       </c>
-      <c r="T3" s="37">
+      <c r="U3" s="37">
         <v>45854</v>
       </c>
-      <c r="U3" s="37">
+      <c r="V3" s="37">
         <v>45966</v>
       </c>
-      <c r="V3" s="9">
+      <c r="W3" s="9">
         <v>45728</v>
       </c>
-      <c r="W3" s="9">
+      <c r="X3" s="9">
         <v>45875</v>
       </c>
-      <c r="X3" s="38">
+      <c r="Y3" s="38">
         <v>45826</v>
       </c>
-      <c r="Y3" s="38">
+      <c r="Z3" s="38">
         <v>45840</v>
-      </c>
-      <c r="Z3" s="38">
-        <v>45952</v>
       </c>
       <c r="AA3" s="38">
         <v>45952</v>
@@ -890,13 +898,16 @@
         <v>45952</v>
       </c>
       <c r="AC3" s="38">
+        <v>45952</v>
+      </c>
+      <c r="AD3" s="38">
         <v>45973</v>
       </c>
-      <c r="AD3" s="11">
+      <c r="AE3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
@@ -927,7 +938,9 @@
       <c r="J4" s="27">
         <v>45749</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="27">
+        <v>45994</v>
+      </c>
       <c r="L4" s="27">
         <v>45763</v>
       </c>
@@ -937,36 +950,38 @@
       <c r="N4" s="5">
         <v>45707</v>
       </c>
-      <c r="O4" s="33">
+      <c r="P4" s="33">
         <v>45805</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="5">
+      <c r="Q4" s="33">
+        <v>46008</v>
+      </c>
+      <c r="R4" s="5">
         <v>45735</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9">
         <v>45861</v>
       </c>
-      <c r="T4" s="9">
+      <c r="U4" s="9">
         <v>45912</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9">
+      <c r="V4" s="9"/>
+      <c r="W4" s="9">
         <v>45777</v>
       </c>
-      <c r="W4" s="9"/>
-      <c r="X4" s="11"/>
+      <c r="X4" s="9"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
-      <c r="AD4" s="11">
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11">
         <v>45875</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" s="2">
         <v>45783</v>
       </c>
@@ -1001,34 +1016,34 @@
       <c r="N5" s="5">
         <v>45735</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>45854</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5">
         <v>45777</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9">
+      <c r="S5" s="9"/>
+      <c r="T5" s="9">
         <v>45931</v>
       </c>
-      <c r="T5" s="9">
+      <c r="U5" s="9">
         <v>45966</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9">
+      <c r="V5" s="9"/>
+      <c r="W5" s="9">
         <v>45903</v>
       </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="35"/>
+      <c r="X5" s="14"/>
       <c r="Y5" s="35"/>
       <c r="Z5" s="35"/>
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="35"/>
-      <c r="AD5" s="11"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="11"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" s="39">
         <v>45825</v>
       </c>
@@ -1054,30 +1069,30 @@
       <c r="N6" s="5">
         <v>45763</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>45896</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="33">
+      <c r="Q6" s="5"/>
+      <c r="R6" s="33">
         <v>45833</v>
       </c>
-      <c r="R6" s="32"/>
-      <c r="S6" s="9">
+      <c r="S6" s="32"/>
+      <c r="T6" s="9">
         <v>45966</v>
       </c>
-      <c r="T6" s="32"/>
       <c r="U6" s="32"/>
-      <c r="V6" s="9"/>
+      <c r="V6" s="32"/>
       <c r="W6" s="9"/>
-      <c r="X6" s="11"/>
+      <c r="X6" s="9"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" s="2">
         <v>45867</v>
       </c>
@@ -1087,7 +1102,9 @@
       <c r="I7" s="31">
         <v>45826</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="27">
+        <v>46008</v>
+      </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27">
         <v>45917</v>
@@ -1098,28 +1115,28 @@
       <c r="N7" s="5">
         <v>45791</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>45924</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5">
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5">
         <v>45868</v>
       </c>
-      <c r="R7" s="9"/>
       <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
-      <c r="X7" s="11"/>
+      <c r="X7" s="9"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" s="39">
         <v>45909</v>
       </c>
@@ -1135,11 +1152,17 @@
       <c r="N8" s="5">
         <v>45819</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="P8" s="5">
+        <v>45994</v>
+      </c>
+      <c r="R8" s="33">
         <v>45910</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
+      <c r="A9" s="2">
+        <v>45994</v>
+      </c>
       <c r="I9" s="30">
         <v>45861</v>
       </c>
@@ -1149,11 +1172,11 @@
       <c r="N9" s="5">
         <v>45847</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>45987</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="I10" s="30">
         <v>45889</v>
       </c>
@@ -1164,20 +1187,28 @@
         <v>45917</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="I11" s="30">
         <v>45917</v>
       </c>
+      <c r="M11" s="5">
+        <v>46008</v>
+      </c>
       <c r="N11" s="5">
         <v>45938</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="I12" s="30">
         <v>45959</v>
       </c>
       <c r="N12" s="5">
         <v>45987</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="I13" s="30">
+        <v>45994</v>
       </c>
     </row>
   </sheetData>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B1814-F801-47CB-AEFF-2D6375729423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1489B27-2C94-44AD-A987-F989D0DA24D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>心願</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -166,6 +166,14 @@
   </si>
   <si>
     <t>開蓋有獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙之守護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔莎灰霧森林</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -648,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -662,21 +670,21 @@
     <col min="5" max="5" width="10.59765625" style="3" customWidth="1"/>
     <col min="6" max="6" width="17" style="4" customWidth="1"/>
     <col min="7" max="7" width="16.19921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.796875" style="30" customWidth="1"/>
-    <col min="10" max="11" width="34.19921875" style="28" customWidth="1"/>
-    <col min="12" max="12" width="36.19921875" style="28" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="8" customWidth="1"/>
-    <col min="14" max="15" width="18.5" style="5" customWidth="1"/>
-    <col min="16" max="17" width="13.19921875" style="8" customWidth="1"/>
-    <col min="18" max="18" width="17.796875" style="8" customWidth="1"/>
-    <col min="19" max="22" width="17.796875" style="10" customWidth="1"/>
-    <col min="23" max="24" width="13.3984375" style="10" customWidth="1"/>
-    <col min="25" max="30" width="13.3984375" style="12" customWidth="1"/>
-    <col min="31" max="31" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.796875" style="30" customWidth="1"/>
+    <col min="11" max="12" width="34.19921875" style="28" customWidth="1"/>
+    <col min="13" max="13" width="36.19921875" style="28" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="8" customWidth="1"/>
+    <col min="15" max="16" width="18.5" style="5" customWidth="1"/>
+    <col min="17" max="18" width="13.19921875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="17.796875" style="8" customWidth="1"/>
+    <col min="20" max="23" width="17.796875" style="10" customWidth="1"/>
+    <col min="24" max="26" width="13.3984375" style="10" customWidth="1"/>
+    <col min="27" max="32" width="13.3984375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="10.8984375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="23" customFormat="1">
+    <row r="1" spans="1:33" s="23" customFormat="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
@@ -687,37 +695,39 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="18"/>
+      <c r="J1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="24"/>
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="24"/>
+      <c r="N1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="20"/>
       <c r="O1" s="20"/>
-      <c r="P1" s="19"/>
+      <c r="P1" s="20"/>
       <c r="Q1" s="19"/>
       <c r="R1" s="19"/>
-      <c r="S1" s="21"/>
+      <c r="S1" s="19"/>
       <c r="T1" s="21"/>
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
       <c r="AA1" s="22"/>
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
       <c r="AD1" s="22"/>
       <c r="AE1" s="22"/>
-    </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="16.5">
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+    </row>
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="16.5">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,77 +752,83 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="M2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="AB2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AC2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AD2" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AE2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AD2" s="36" t="s">
+      <c r="AF2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="11" t="s">
+      <c r="AG2" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:33">
       <c r="A3" s="2">
         <v>45685</v>
       </c>
@@ -837,77 +853,83 @@
       <c r="H3" s="4">
         <v>45684</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="4">
+        <v>46015</v>
+      </c>
+      <c r="J3" s="30">
         <v>45651</v>
       </c>
-      <c r="J3" s="27">
+      <c r="K3" s="27">
         <v>45700</v>
       </c>
-      <c r="K3" s="27">
+      <c r="L3" s="27">
         <v>45889</v>
       </c>
-      <c r="L3" s="27">
+      <c r="M3" s="27">
         <v>45714</v>
       </c>
-      <c r="M3" s="7">
+      <c r="N3" s="7">
         <v>45700</v>
       </c>
-      <c r="N3" s="5">
+      <c r="O3" s="5">
         <v>45672</v>
       </c>
-      <c r="O3" s="5">
+      <c r="P3" s="5">
         <v>46001</v>
       </c>
-      <c r="P3" s="5">
+      <c r="Q3" s="5">
         <v>45721</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="R3" s="5">
         <v>45980</v>
       </c>
-      <c r="R3" s="5">
+      <c r="S3" s="5">
         <v>45684</v>
       </c>
-      <c r="S3" s="9">
+      <c r="T3" s="9">
         <v>45805</v>
       </c>
-      <c r="T3" s="37">
+      <c r="U3" s="37">
         <v>45812</v>
       </c>
-      <c r="U3" s="37">
+      <c r="V3" s="37">
         <v>45854</v>
       </c>
-      <c r="V3" s="37">
+      <c r="W3" s="37">
         <v>45966</v>
       </c>
-      <c r="W3" s="9">
+      <c r="X3" s="9">
         <v>45728</v>
       </c>
-      <c r="X3" s="9">
+      <c r="Y3" s="9">
+        <v>46022</v>
+      </c>
+      <c r="Z3" s="9">
         <v>45875</v>
       </c>
-      <c r="Y3" s="38">
+      <c r="AA3" s="38">
         <v>45826</v>
       </c>
-      <c r="Z3" s="38">
+      <c r="AB3" s="38">
         <v>45840</v>
-      </c>
-      <c r="AA3" s="38">
-        <v>45952</v>
-      </c>
-      <c r="AB3" s="38">
-        <v>45952</v>
       </c>
       <c r="AC3" s="38">
         <v>45952</v>
       </c>
       <c r="AD3" s="38">
+        <v>45952</v>
+      </c>
+      <c r="AE3" s="38">
+        <v>45952</v>
+      </c>
+      <c r="AF3" s="38">
         <v>45973</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AG3" s="11">
         <v>45677</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:33">
       <c r="A4" s="2">
         <v>45734</v>
       </c>
@@ -932,56 +954,57 @@
       <c r="H4" s="4">
         <v>45868</v>
       </c>
-      <c r="I4" s="30">
+      <c r="J4" s="30">
         <v>45714</v>
       </c>
-      <c r="J4" s="27">
+      <c r="K4" s="27">
         <v>45749</v>
       </c>
-      <c r="K4" s="27">
+      <c r="L4" s="27">
         <v>45994</v>
       </c>
-      <c r="L4" s="27">
+      <c r="M4" s="27">
         <v>45763</v>
       </c>
-      <c r="M4" s="5">
+      <c r="N4" s="5">
         <v>45728</v>
       </c>
-      <c r="N4" s="5">
+      <c r="O4" s="5">
         <v>45707</v>
       </c>
-      <c r="P4" s="33">
+      <c r="Q4" s="33">
         <v>45805</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="R4" s="33">
         <v>46008</v>
       </c>
-      <c r="R4" s="5">
+      <c r="S4" s="5">
         <v>45735</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9">
+      <c r="T4" s="9"/>
+      <c r="U4" s="9">
         <v>45861</v>
       </c>
-      <c r="U4" s="9">
+      <c r="V4" s="9">
         <v>45912</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9">
         <v>45777</v>
       </c>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="11">
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11">
         <v>45875</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:33">
       <c r="A5" s="2">
         <v>45783</v>
       </c>
@@ -1000,50 +1023,52 @@
       <c r="H5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="15"/>
+      <c r="J5" s="30">
         <v>45749</v>
       </c>
-      <c r="J5" s="27">
+      <c r="K5" s="27">
         <v>45847</v>
       </c>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27">
         <v>45798</v>
       </c>
-      <c r="M5" s="33">
+      <c r="N5" s="33">
         <v>45812</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>45735</v>
       </c>
-      <c r="P5" s="5">
+      <c r="Q5" s="5">
         <v>45854</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5">
         <v>45777</v>
       </c>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9">
+      <c r="T5" s="9"/>
+      <c r="U5" s="9">
         <v>45931</v>
       </c>
-      <c r="U5" s="9">
+      <c r="V5" s="9">
         <v>45966</v>
       </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9">
+      <c r="W5" s="9"/>
+      <c r="X5" s="9">
         <v>45903</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="14"/>
       <c r="AA5" s="35"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="35"/>
       <c r="AD5" s="35"/>
-      <c r="AE5" s="11"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="11"/>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" s="39">
         <v>45825</v>
       </c>
@@ -1053,162 +1078,171 @@
       <c r="G6" s="4">
         <v>45896</v>
       </c>
-      <c r="I6" s="30">
+      <c r="J6" s="30">
         <v>45798</v>
       </c>
-      <c r="J6" s="40">
+      <c r="K6" s="40">
         <v>45938</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="40">
+      <c r="L6" s="27"/>
+      <c r="M6" s="40">
         <v>45833</v>
       </c>
-      <c r="M6" s="33">
+      <c r="N6" s="33">
         <v>45840</v>
       </c>
-      <c r="N6" s="5">
+      <c r="O6" s="5">
         <v>45763</v>
       </c>
-      <c r="P6" s="5">
+      <c r="Q6" s="5">
         <v>45896</v>
       </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="33">
+      <c r="R6" s="5"/>
+      <c r="S6" s="33">
         <v>45833</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="9">
+      <c r="T6" s="32"/>
+      <c r="U6" s="9">
         <v>45966</v>
       </c>
-      <c r="U6" s="32"/>
       <c r="V6" s="32"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="9">
+        <v>46015</v>
+      </c>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" s="2">
         <v>45867</v>
       </c>
       <c r="G7" s="4">
         <v>45945</v>
       </c>
-      <c r="I7" s="31">
+      <c r="J7" s="31">
         <v>45826</v>
       </c>
-      <c r="J7" s="27">
+      <c r="K7" s="27">
         <v>46008</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27">
+      <c r="L7" s="27"/>
+      <c r="M7" s="27">
         <v>45917</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>45903</v>
       </c>
-      <c r="N7" s="5">
+      <c r="O7" s="5">
         <v>45791</v>
       </c>
-      <c r="P7" s="5">
+      <c r="Q7" s="5">
         <v>45924</v>
       </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5">
+      <c r="R7" s="5"/>
+      <c r="S7" s="5">
         <v>45868</v>
       </c>
-      <c r="S7" s="9"/>
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7" s="11"/>
+      <c r="AG7" s="11"/>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" s="39">
         <v>45909</v>
       </c>
-      <c r="I8" s="31">
+      <c r="J8" s="31">
         <v>45847</v>
       </c>
-      <c r="L8" s="27">
+      <c r="M8" s="27">
         <v>45980</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>45931</v>
       </c>
-      <c r="N8" s="5">
+      <c r="O8" s="5">
         <v>45819</v>
       </c>
-      <c r="P8" s="5">
+      <c r="Q8" s="5">
         <v>45994</v>
       </c>
-      <c r="R8" s="33">
+      <c r="S8" s="33">
         <v>45910</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:33">
       <c r="A9" s="2">
         <v>45994</v>
       </c>
-      <c r="I9" s="30">
+      <c r="J9" s="30">
         <v>45861</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>45945</v>
       </c>
-      <c r="N9" s="5">
+      <c r="O9" s="5">
         <v>45847</v>
       </c>
-      <c r="R9" s="5">
+      <c r="S9" s="5">
         <v>45987</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
-      <c r="I10" s="30">
+    <row r="10" spans="1:33">
+      <c r="J10" s="30">
         <v>45889</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>45980</v>
       </c>
-      <c r="N10" s="5">
+      <c r="O10" s="5">
         <v>45917</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
-      <c r="I11" s="30">
+    <row r="11" spans="1:33">
+      <c r="J11" s="30">
         <v>45917</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>46008</v>
       </c>
-      <c r="N11" s="5">
+      <c r="O11" s="5">
         <v>45938</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
-      <c r="I12" s="30">
+    <row r="12" spans="1:33">
+      <c r="J12" s="30">
         <v>45959</v>
       </c>
-      <c r="N12" s="5">
+      <c r="O12" s="5">
         <v>45987</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
-      <c r="I13" s="30">
+    <row r="13" spans="1:33">
+      <c r="J13" s="30">
         <v>45994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="J14" s="30">
+        <v>46022</v>
       </c>
     </row>
   </sheetData>

--- a/data/Activity.xlsx
+++ b/data/Activity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Joey\麥芬\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1489B27-2C94-44AD-A987-F989D0DA24D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC5F741-3347-443A-B3B4-4E0ACE348628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -972,6 +972,9 @@
       <c r="O4" s="5">
         <v>45707</v>
       </c>
+      <c r="P4" s="5">
+        <v>46029</v>
+      </c>
       <c r="Q4" s="33">
         <v>45805</v>
       </c>
@@ -1195,6 +1198,9 @@
       <c r="J9" s="30">
         <v>45861</v>
       </c>
+      <c r="M9" s="27">
+        <v>46029</v>
+      </c>
       <c r="N9" s="5">
         <v>45945</v>
       </c>
